--- a/Functional test plan.xlsx
+++ b/Functional test plan.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e1e23a845f0f8/Töölaud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Dokumendid\lab2-kristotaunopatrik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{DAC7C1FF-A7E7-4396-BEC6-0AA048357532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADEB3180-A349-443B-8AB1-A0DE4738E051}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="8_{DAC7C1FF-A7E7-4396-BEC6-0AA048357532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19A96909-9C72-4B09-9F54-963B2A9762DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{198CC4FD-7D28-4143-9316-6EDE6B5DE028}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{198CC4FD-7D28-4143-9316-6EDE6B5DE028}"/>
   </bookViews>
   <sheets>
-    <sheet name="Leht1" sheetId="1" r:id="rId1"/>
+    <sheet name="Leht2" sheetId="2" r:id="rId1"/>
+    <sheet name="Leht1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>Functionality to be verified</t>
   </si>
@@ -44,9 +48,6 @@
     <t>Usage frequency of the functionality</t>
   </si>
   <si>
-    <t>Possible damage for business on failure:</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -110,36 +111,6 @@
     <t>Removing products from shopping cart  (FR20)</t>
   </si>
   <si>
-    <t>GUI with compability for all main operating systems (MacOSX, Windows, Linux) (NFR 1)</t>
-  </si>
-  <si>
-    <t>GUI window to be fixed size  (NFR 2)</t>
-  </si>
-  <si>
-    <t>GUI to be ready for work when opened  (NFR 3)</t>
-  </si>
-  <si>
-    <t>All functions to be available through CLI and GUI  (NFR 4)</t>
-  </si>
-  <si>
-    <t>System to be in English language  (NFR 5)</t>
-  </si>
-  <si>
-    <t>Updating the cart contents in under 150ms 90% of the time when new purchases are added (Performance 1)</t>
-  </si>
-  <si>
-    <t>Displaying the view in under 200ms for 90% of the cases when the view is switched to another view (Performance 2)</t>
-  </si>
-  <si>
-    <t>Dropdown list "Name" displayed to roll down in under a second 95% of the time when clicked (Performance 3)</t>
-  </si>
-  <si>
-    <t>Purchase to register in under a second for 95% of the cases when it is submitted for registration (Performance 4)</t>
-  </si>
-  <si>
-    <t>The application to update the purchase history in under 150ms for 90% of the cases when specific dates are added for the purchase history request (Performance 5)</t>
-  </si>
-  <si>
     <t>Kristo</t>
   </si>
   <si>
@@ -161,9 +132,6 @@
     <t>To see info about the team leader  (FR4)</t>
   </si>
   <si>
-    <t>10 minutes</t>
-  </si>
-  <si>
     <t>45 minutes</t>
   </si>
   <si>
@@ -173,23 +141,35 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t>15 minutes</t>
-  </si>
-  <si>
     <t>20 minutes</t>
   </si>
   <si>
-    <t>1 hour and 30 minutes</t>
-  </si>
-  <si>
-    <t>1 hour and 15 minutes</t>
+    <t xml:space="preserve">Usage frequency: high - used more than 3 times a day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage frequency: average - used 2-3 times a day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage frequency: low - used 1 time a day or less. </t>
+  </si>
+  <si>
+    <t>Possible damage for business on failure: high- can't continue working should be fixed right away.</t>
+  </si>
+  <si>
+    <t>Possible damage for business on failure: low- doesn't really change much because it's replacable with other functionalities</t>
+  </si>
+  <si>
+    <t>Possible damage for business on failure: average- this doesn't stop the applications other functionalities but it should be fixed soon.</t>
+  </si>
+  <si>
+    <t>Possible damage for business on failure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +205,20 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -242,11 +236,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,65 +359,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -403,6 +467,60 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -416,16 +534,144 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kristo MArkov123" refreshedDate="44164.699440046294" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{B2ECC924-2D5E-4944-87BC-17FAEB3BCE9D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabel1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Test ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Test scenario" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Related Requirement(s)" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Test Steps" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Test Data" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Expected Results" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Actual Results" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Pass/Fail" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Veerg1" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <s v="TU01"/>
+    <s v="Add new item to  warehouse (CLI)"/>
+    <m/>
+    <s v="1. Open POS CLI                        2. Enter command wan         3. Enter ProductId          4. Enter   addable quantity              5. Enter price             6. Enter description       7. Enter Name"/>
+    <s v="command=wa    ProductId= 4           quantity= 3                      price=5.50         description= Burger   Name = Big Mac"/>
+    <s v="POS user added new item to warehouse."/>
+    <s v="As Excepted"/>
+    <s v="Pass"/>
+    <m/>
+  </r>
+  <r>
+    <s v="TU02"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="TU03"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="TU04"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="TU05"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AAA9E84-9E9B-4B13-B2E5-BDE1D5902C91}" name="PivotTable-liigendtabel1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Väärtused" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9F8BBCB-4169-441E-9173-A7EEA5AB6192}" name="Tabel2" displayName="Tabel2" ref="A1:F31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:F31" xr:uid="{0DEC6012-E0BC-4A52-B33C-4DD670BEDFA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9F8BBCB-4169-441E-9173-A7EEA5AB6192}" name="Tabel2" displayName="Tabel2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{0DEC6012-E0BC-4A52-B33C-4DD670BEDFA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A5D7272E-E7F5-4D55-ABE0-A10E138245FB}" name="Functionality to be verified" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F5F7CAB4-480F-4EC5-AB03-19A355C86EF7}" name="Assignee" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8FDA054A-5BF2-4942-ABF4-B68D75D979A8}" name="Usage frequency of the functionality" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1B54EE6F-0738-49CB-A15A-CB32B2CE77C7}" name="Possible damage for business on failure:" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E7EDFE8F-2B8C-4951-9F99-52088E7474A6}" name="Priority" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{AA2123CB-898C-4792-A25D-BE474A4E2615}" name="Estimated test effort in person-hours" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A5D7272E-E7F5-4D55-ABE0-A10E138245FB}" name="Functionality to be verified" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F5F7CAB4-480F-4EC5-AB03-19A355C86EF7}" name="Assignee" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8FDA054A-5BF2-4942-ABF4-B68D75D979A8}" name="Usage frequency of the functionality" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1B54EE6F-0738-49CB-A15A-CB32B2CE77C7}" name="Possible damage for business on failure" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E7EDFE8F-2B8C-4951-9F99-52088E7474A6}" name="Priority" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AA2123CB-898C-4792-A25D-BE474A4E2615}" name="Estimated test effort in person-hours" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,24 +973,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FB6A3A-8D2C-4E47-940A-9216BA31EE1F}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49DE6F5-06E1-4B3C-98D2-1F6FF17703EF}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,676 +1116,660 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Functional test plan.xlsx
+++ b/Functional test plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Dokumendid\lab2-kristotaunopatrik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e1e23a845f0f8/Dokumendid/lab2-kristotaunopatrik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="8_{DAC7C1FF-A7E7-4396-BEC6-0AA048357532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19A96909-9C72-4B09-9F54-963B2A9762DD}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="8_{DAC7C1FF-A7E7-4396-BEC6-0AA048357532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15D52E4F-747D-46A5-BC81-C99751EDEAD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{198CC4FD-7D28-4143-9316-6EDE6B5DE028}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>Functionality to be verified</t>
   </si>
@@ -163,6 +163,129 @@
   </si>
   <si>
     <t>Possible damage for business on failure</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Test scenario</t>
+  </si>
+  <si>
+    <t>Related Requirement(s)</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TU01</t>
+  </si>
+  <si>
+    <t>Add new item to warehousewith valid data (CLI)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>POS user added new item to warehouse.</t>
+  </si>
+  <si>
+    <t>As Excepted</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TU02</t>
+  </si>
+  <si>
+    <t>Adding product to cart with valid data(CLI)</t>
+  </si>
+  <si>
+    <t>POS user added 1 product with ID 5 to the shopping cart</t>
+  </si>
+  <si>
+    <t>TU03</t>
+  </si>
+  <si>
+    <t>Adding product to cart with invalid data(CLI)</t>
+  </si>
+  <si>
+    <t>POS user shouldn't add anything to cart</t>
+  </si>
+  <si>
+    <t>TU04</t>
+  </si>
+  <si>
+    <t>Remove product from warehouse(GUI)</t>
+  </si>
+  <si>
+    <t>1. TU01</t>
+  </si>
+  <si>
+    <t>POS user removed 3 products with id 1 from warehouse</t>
+  </si>
+  <si>
+    <t>TU05</t>
+  </si>
+  <si>
+    <t>Showing history on specific dates(GUI)</t>
+  </si>
+  <si>
+    <t>POS user sees which purchases were made between dates and every purchase detail.</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>1. Open POS CLI                                        2. Enter Command                                    3. Enter ProductId                                    4. Enter addable Quantity                              5. Enter Price                                            6. Enter Description                                 7. Enter Name</t>
+  </si>
+  <si>
+    <t>1. Open POS CLI                                        2. Enter Command                                     3. Enter ProductId                                    4. Enter addable Quantity</t>
+  </si>
+  <si>
+    <t>1. Open POS CLI                                        2. Enter Command                                    3. Enter ProductId                                    4. Enter addable Quantity</t>
+  </si>
+  <si>
+    <t>1. Open POS GUI                                         2.Open warehouse tab                                   3. Enter Bar Code                                     4. Enter Amount                                       5. Press Remove Product</t>
+  </si>
+  <si>
+    <t>1. TU01                              2. Error if the desired quantity of a product exceeds maximum quantity</t>
+  </si>
+  <si>
+    <t>Command = a                                            ProductId=5                                               Quantity=3</t>
+  </si>
+  <si>
+    <t>1. Open POS GUI                                        2. Open History tab                                    3. Enter Start date                                   4. Enter End date 5. Press Show between dates</t>
+  </si>
+  <si>
+    <t>1. TU01                             2. Same added items to sum up in shopping cart         3. Error if the desired quantity of a product exceeds maximum quantity</t>
+  </si>
+  <si>
+    <t>1. TU01                             2. TU03                                  3. Confirming the purchase  4. Registering new Purchase                           5. Updating warehouse status after purchase                      6. History of all purchases</t>
+  </si>
+  <si>
+    <t>command= wa                                            ProductId= 5                                                 Quantity= 3                                                      Price=5.50                                              Description= Burger                                          Name = Big Mac</t>
+  </si>
+  <si>
+    <t>Command = a                                               ProductId=5                                                   Quantity=1</t>
+  </si>
+  <si>
+    <t>Bar Code = 1                                           Amount = 3</t>
+  </si>
+  <si>
+    <t>Start date = 29.11.2020                                          End date = 29.11.2020</t>
   </si>
 </sst>
 </file>
@@ -220,15 +343,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -347,11 +482,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,6 +522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
@@ -637,7 +793,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AAA9E84-9E9B-4B13-B2E5-BDE1D5902C91}" name="PivotTable-liigendtabel1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Väärtused" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AAA9E84-9E9B-4B13-B2E5-BDE1D5902C91}" name="PivotTable-liigendtabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Väärtused" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1079,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49DE6F5-06E1-4B3C-98D2-1F6FF17703EF}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,32 +1900,161 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+    <row r="29" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
